--- a/Datasett/skjenkesteder-i-gjesdal-kommune-2016-2020.xlsx
+++ b/Datasett/skjenkesteder-i-gjesdal-kommune-2016-2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datasett/skjenkesteder-i-gjesdal-kommune-2016-2020.xlsx
+++ b/Datasett/skjenkesteder-i-gjesdal-kommune-2016-2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>nord</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Byrkjedalstunet</t>
   </si>
   <si>
-    <t>Byrkjedalstunet   4335 DIRDAL</t>
-  </si>
-  <si>
     <t>6519883.34</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Lonestar Ålgård</t>
   </si>
   <si>
-    <t>Kongsgata 7  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6519546.38</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Westernbyen</t>
   </si>
   <si>
-    <t>Ålgårdslåtten 12  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6526031.61</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>Frafjord Spa</t>
   </si>
   <si>
-    <t>Øyravegen 63  4335 DIRDAL</t>
-  </si>
-  <si>
     <t>6515840.35</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>Jegerklubben</t>
   </si>
   <si>
-    <t>Skurvebakkane 16  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6524277.91</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Gjestal Kro</t>
   </si>
   <si>
-    <t>Hunnedalsvegen 1150   4333 OLTEDAL</t>
-  </si>
-  <si>
     <t>6519687.38</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Gjesdal Gjestgiveri</t>
   </si>
   <si>
-    <t>Opstadveien 3   4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6518513.17</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>Værtshuset Ålgård</t>
   </si>
   <si>
-    <t>Sandnesveien 21  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6519813.36</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>The Great Wall</t>
   </si>
   <si>
-    <t>Kongsgata 1  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>6519728.32</t>
   </si>
   <si>
@@ -216,9 +189,6 @@
     <t>Kongeparken</t>
   </si>
   <si>
-    <t>Kongsgata 20  4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>Kongeparken - Gjesdal konserthus</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>Lafthuset</t>
   </si>
   <si>
-    <t xml:space="preserve">Bygdaveien 186  4333 OLTEDAL </t>
-  </si>
-  <si>
     <t>6518487.43</t>
   </si>
   <si>
@@ -255,7 +222,49 @@
     <t>Hey Honey</t>
   </si>
   <si>
-    <t>Ole Nielsens vei 13   4330 ÅLGÅRD</t>
+    <t>postnummer</t>
+  </si>
+  <si>
+    <t>poststed</t>
+  </si>
+  <si>
+    <t>DIRDAL</t>
+  </si>
+  <si>
+    <t>ÅLGÅRD</t>
+  </si>
+  <si>
+    <t>OLTEDAL</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>Kongsgata</t>
+  </si>
+  <si>
+    <t>Ålgårdslåtten</t>
+  </si>
+  <si>
+    <t>Øyravegen</t>
+  </si>
+  <si>
+    <t>Skurvebakkane</t>
+  </si>
+  <si>
+    <t>Hunnedalsvegen</t>
+  </si>
+  <si>
+    <t>Opstadveien</t>
+  </si>
+  <si>
+    <t>Sandnesveien</t>
+  </si>
+  <si>
+    <t>Bygdaveien</t>
+  </si>
+  <si>
+    <t>Ole Nielsens vei</t>
   </si>
 </sst>
 </file>
@@ -1096,15 +1105,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1135,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1141,247 +1162,361 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>4335</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>4330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H4">
+        <v>4330</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <v>4335</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>4330</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>1150</v>
+      </c>
+      <c r="H7">
+        <v>4333</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4330</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>4330</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4330</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>4330</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>4330</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>186</v>
+      </c>
+      <c r="H13">
+        <v>4333</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H14">
+        <v>4330</v>
+      </c>
+      <c r="I14" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
